--- a/outputs/KEYWEST4.xlsx
+++ b/outputs/KEYWEST4.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations 2. Information Processing Style
-Why: The Syllabus page is explicitly mentioned in the text as the starting point for the course, indicating that it contains important information. This aligns with Abi's motivation to accomplish tasks effectively and her comprehensive information processing style, where she prefers to gather all necessary information before proceeding. The clear instruction to begin with the Syllabus would make Abi consider it a necessary step toward understanding what to do during Week 1 and the deadlines.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The Syllabus page is explicitly mentioned in the instructions on the Home page as a starting point for understanding the course structure and requirements. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, as they would likely follow the provided instructions to gather all necessary information.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations 2. Information Processing Style
-Why: The instruction to click on "Syllabus" is clearly stated in the welcome text, making it straightforward for Abi to understand that this is the next step to take. This aligns with Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, as the Syllabus is emphasized as an essential resource to begin the course. The presence of a "Syllabus" link in the left pane matches the instructions given, ensuring clarity and reducing any potential confusion.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The Home page clearly instructs students to click on the "Syllabus" link in the left pane to begin the course. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, as they would follow the provided instructions to gather all necessary information. The clear labeling and instructions make it easy for Abi to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations 2. Information Processing Style
-Why: After clicking "Syllabus" in the left pane, Abi lands on a page titled "Course Syllabus," which clearly aligns with her goal of finding the syllabus. The page contains a "Syllabus – Weekly schedule" section that includes detailed information on what is due each week. This comprehensive layout provides clear information about the tasks and deadlines for Week 1, fulfilling Abi's need for detailed and organized information. This will make Abi feel confident that she has done the right thing and is making progress toward her goal.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Syllabus," Abi lands on a page that clearly displays the course syllabus, including a weekly schedule with detailed information on what is due each week. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, as the page provides all the necessary information about Week 1 activities and deadlines. Abi will know they are making progress toward their goal because the page directly addresses their need to understand what to do during Week 1 and the associated deadlines.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations 2. Information Processing Style
-Why: The "Syllabus – Weekly schedule" section on the Syllabus page provides a detailed summary of activities and deadlines for each week, aligning with Abi's overall goal of understanding what to do during Week 1 and what the deadlines are. This is exactly the type of comprehensive information Abi seeks, which supports her motivation to complete tasks effectively and her preference for gathering all necessary information before proceeding.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The summary of activities and deadlines is a crucial part of understanding what needs to be done during Week 1. Abi, being motivated to accomplish tasks and having a comprehensive information processing style, would consider finding this summary as an essential step toward achieving the overall use case. The page provides a clear weekly schedule, which directly aligns with Abi's goal of figuring out what to do during Week 1 and what the deadlines are.</t>
         </is>
       </c>
     </row>
@@ -461,17 +461,17 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations 2. Information Processing Style
-Why: The page provides a clear and organized "Syllabus – Weekly schedule" section immediately visible, indicating that scrolling down will provide more detailed information. Abi's motivation to understand the requirements and deadlines for Week 1 and her comprehensive information processing style will guide her to read through the "Course Summary" to gather all necessary details. The layout and labeling of the page make it straightforward for Abi to know what to do next, and the information is easily accessible by scrolling down.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page is well-organized and clearly labeled, making it easy for Abi to understand that they need to scroll down to the "Course Summary" section to find the summary of activities and deadlines. This aligns with Abi's comprehensive information processing style, as they would naturally read through the page to gather all necessary information. Additionally, the clear layout and labeling support Abi's computer self-efficacy, making them feel confident in taking this action.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy 5. Learning Style
-Why: While the "Syllabus – Weekly schedule" section provides a comprehensive list of activities and deadlines, it may be overwhelming for Abi to process all this information at once. The page contains a lot of text and a detailed table, which might be challenging for someone with low computer self-efficacy and a preference for process-oriented learning. Abi might doubt if she has correctly identified and understood all the necessary details for Week 1, especially if she is not confident in handling unfamiliar or complex information formats. Therefore, she might not feel assured that she has done the right thing and is making progress toward her goal.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After scrolling down to the "Course Summary" section, Abi will see a detailed weekly schedule that includes all the activities and deadlines for Week 1. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, as the page provides all the necessary information in a clear and organized manner. Abi will know they are making progress toward their goal because the information directly addresses their need to understand what to do during Week 1 and the associated deadlines.</t>
         </is>
       </c>
     </row>

--- a/outputs/KEYWEST4.xlsx
+++ b/outputs/KEYWEST4.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The Syllabus page is explicitly mentioned in the course introduction text as a necessary step to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would want to gather all relevant information before proceeding.</t>
+Why: The Syllabus page is explicitly mentioned in the text as a crucial step to begin the course and contains important information. ABI, who prefers comprehensive information processing, would recognize the importance of the Syllabus in understanding what to do during Week 1 and the deadlines. This aligns with ABI's motivation to accomplish tasks and gather complete information before proceeding.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly instructs the user to click on "Syllabus" in the left pane to begin the course and read through the syllabus. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would follow the provided instructions to gather all necessary information.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page clearly instructs the user to click on "Syllabus" in the left pane to begin the course and read important information. This aligns with ABI's motivation to accomplish tasks and gather comprehensive information. The clear instruction boosts ABI's confidence (Computer Self-Efficacy) in knowing what to do at this step. The presence of the "Syllabus" link in the left pane makes it easy for ABI to take this action without confusion.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Syllabus," Abi lands on a page that clearly displays the course syllabus, including a weekly schedule with detailed information on what is due each week. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she can see the relevant deadlines and tasks for Week 1, confirming that she is making progress toward her goal.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking "Syllabus," ABI lands on a page titled "Course Syllabus," which clearly indicates that she is in the right place. The page provides a detailed weekly schedule, including what is due in class, which directly addresses ABI's goal of figuring out what to do during Week 1 and the deadlines. This clear and comprehensive information aligns with ABI's motivation to accomplish tasks and her preference for a comprehensive information processing style. The clear layout and detailed information also boost ABI's confidence in knowing she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The summary of activities and deadlines is crucial for understanding what needs to be done during Week 1 and when tasks are due. Abi, motivated to accomplish her tasks, would consider finding this summary as an essential step. Additionally, her comprehensive information processing style would lead her to seek out detailed information to ensure she is fully informed about her responsibilities and deadlines.</t>
+Why: The page titled "Course Syllabus" includes a "Syllabus – Weekly schedule" section that lists activities and deadlines for each week. ABI, who is motivated to figure out what to do during Week 1 and what the deadlines are, would recognize that finding a summary of activities and deadlines is a crucial step toward achieving this goal. The detailed weekly schedule aligns with ABI's preference for comprehensive information processing, making it clear that this step is essential for understanding the course requirements and deadlines.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page is well-structured and clearly labeled, with a "Course Summary" section that is easy to locate. Abi, motivated to find the summary of activities and deadlines, would know to scroll down and read through this section. This action aligns with her comprehensive information processing style, as she would want to gather all relevant details to ensure she understands what is required for Week 1.</t>
+Why: The page clearly displays a "Course Summary" section and a detailed "Syllabus – Weekly schedule" right below it. ABI, who is motivated to find out what to do during Week 1 and the deadlines, would naturally be inclined to scroll down and read through this section. The layout and headings make it evident that this section contains the necessary information, aligning with ABI's comprehensive information processing style. The page is straightforward and provides the detailed information ABI needs, making it easy for her to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After scrolling down to the "Course Summary" section, Abi will see a detailed weekly schedule that includes the activities and deadlines for Week 1. This clear presentation of information will confirm to Abi that she is making progress toward her goal of understanding what to do during Week 1 and what the deadlines are. The detailed breakdown aligns with her comprehensive information processing style, ensuring she gets all the information she needs.</t>
+Why: After scrolling down to the "Course Summary" and reading through the "Syllabus – Weekly schedule," ABI will see a detailed list of activities and deadlines for each week. This directly addresses her goal of figuring out what to do during Week 1 and what the deadlines are. The clear and organized presentation of information ensures that ABI knows she is making progress toward her goal and has all the necessary information. This aligns with her motivation to accomplish tasks and her preference for comprehensive information processing.</t>
         </is>
       </c>
     </row>
